--- a/Multiligual AI.xlsx
+++ b/Multiligual AI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="787">
   <si>
     <t>Admin</t>
   </si>
@@ -1719,668 +1719,685 @@
     <t>The list with interval transactions can not be set</t>
   </si>
   <si>
-    <t>Money Saver is a personal cash flow and budget management app which is intended to do exactly what it says on the box. Help you save money. 
-Although internet connection is required when registering a new user account, 
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Budget Management,Monsa,Cash assistant,Transactions reports,Interval income/expense</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>H λίστα με τις επαναλαμβανόμενες συναλλαγές, δεν μπορεί να δημιουργηθεί.</t>
+  </si>
+  <si>
+    <t>Админ</t>
+  </si>
+  <si>
+    <t>Предел Бюджета</t>
+  </si>
+  <si>
+    <t>Категории</t>
+  </si>
+  <si>
+    <t>Частоты</t>
+  </si>
+  <si>
+    <t>Интервал</t>
+  </si>
+  <si>
+    <t>Уведомления</t>
+  </si>
+  <si>
+    <t>Безопасность</t>
+  </si>
+  <si>
+    <t>Причины Транзакции</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Сумма от</t>
+  </si>
+  <si>
+    <t>Сумма от не может превышать Сумму до</t>
+  </si>
+  <si>
+    <t>Сумма до</t>
+  </si>
+  <si>
+    <t>о программе</t>
+  </si>
+  <si>
+    <t>добавить</t>
+  </si>
+  <si>
+    <t>бюджет</t>
+  </si>
+  <si>
+    <t>отмена</t>
+  </si>
+  <si>
+    <t>продолжить</t>
+  </si>
+  <si>
+    <t>удалить</t>
+  </si>
+  <si>
+    <t>помощь</t>
+  </si>
+  <si>
+    <t>главное меню</t>
+  </si>
+  <si>
+    <t>регистрация</t>
+  </si>
+  <si>
+    <t>сохранить</t>
+  </si>
+  <si>
+    <t>отослать</t>
+  </si>
+  <si>
+    <t>войти</t>
+  </si>
+  <si>
+    <t>транзакция</t>
+  </si>
+  <si>
+    <t>Апрель</t>
+  </si>
+  <si>
+    <t>Август</t>
+  </si>
+  <si>
+    <t>Бюджет</t>
+  </si>
+  <si>
+    <t>Бюджеты</t>
+  </si>
+  <si>
+    <t>Статус Бюджета</t>
+  </si>
+  <si>
+    <t>Синхронизация. Пожалуйста, подождите...</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>* Это будет выбранной опцией в зависимости от времени дня</t>
+  </si>
+  <si>
+    <t>Изменить Пароль</t>
+  </si>
+  <si>
+    <t>Цвет</t>
+  </si>
+  <si>
+    <t>Комментарии</t>
+  </si>
+  <si>
+    <t>Подтверждение удаления</t>
+  </si>
+  <si>
+    <t>Подтверждение пароля</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Дата От</t>
+  </si>
+  <si>
+    <t>Дата От не может быть больше, чем Дата До</t>
+  </si>
+  <si>
+    <t>Дата До</t>
+  </si>
+  <si>
+    <t>дней</t>
+  </si>
+  <si>
+    <t>Декабрь</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите удалить?</t>
+  </si>
+  <si>
+    <t>Длительность</t>
+  </si>
+  <si>
+    <t>Конец</t>
+  </si>
+  <si>
+    <t>{0} {1} не прошли проверку.</t>
+  </si>
+  <si>
+    <t>Обновите их из списка и сохраните заново.</t>
+  </si>
+  <si>
+    <t>Несколько {0} с одинаковыми именами.</t>
+  </si>
+  <si>
+    <t>Пожалуйста, используйте только уникальные имена.</t>
+  </si>
+  <si>
+    <t>Еще {0} не прошёл проверку.</t>
+  </si>
+  <si>
+    <t>Обновите это из списка и сохраните заново.</t>
+  </si>
+  <si>
+    <t>Февраль</t>
+  </si>
+  <si>
+    <t>Забыли Пароль</t>
+  </si>
+  <si>
+    <t>Забыли Пароль?</t>
+  </si>
+  <si>
+    <t>Четвёртый</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Элемент Другие не может быть удалён.</t>
+  </si>
+  <si>
+    <t>Интервал Транзакций</t>
+  </si>
+  <si>
+    <t>Вы выбрали все транзакции.</t>
+  </si>
+  <si>
+    <t>Пожалуйста, выберите завершённые транзакции аккуратно. Указанные транзакции более не будут отображаться.</t>
+  </si>
+  <si>
+    <t>Вы не выбрали ни одной транзакции.</t>
+  </si>
+  <si>
+    <t>Вы выбрали {0} из {1} транзакций.</t>
+  </si>
+  <si>
+    <t>Список всех автоматически сгенерированных транзакций в соответствии с интервалом комманды.</t>
+  </si>
+  <si>
+    <t>Выберите завершённые транзакции</t>
+  </si>
+  <si>
+    <t>Январь</t>
+  </si>
+  <si>
+    <t>Июль</t>
+  </si>
+  <si>
+    <t>Июнь</t>
+  </si>
+  <si>
+    <t>Вход не выполнен. Пожалуйста, попробуйте снова.</t>
+  </si>
+  <si>
+    <t>Попытка входа...</t>
+  </si>
+  <si>
+    <t>Вход</t>
+  </si>
+  <si>
+    <t>Вход не выполнен</t>
+  </si>
+  <si>
+    <t>Пожалуйста, проверьте следующие ошибки</t>
+  </si>
+  <si>
+    <t>Вход выполнен успешно</t>
+  </si>
+  <si>
+    <t>Главный</t>
+  </si>
+  <si>
+    <t>Транзакции</t>
+  </si>
+  <si>
+    <t>Март</t>
+  </si>
+  <si>
+    <t>Время От</t>
+  </si>
+  <si>
+    <t>От</t>
+  </si>
+  <si>
+    <t>Начало</t>
+  </si>
+  <si>
+    <t>Воскресенье</t>
+  </si>
+  <si>
+    <t>попробовать снова</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>соединение</t>
+  </si>
+  <si>
+    <t>Детали Пользователя</t>
+  </si>
+  <si>
+    <t>Имя пользователя</t>
+  </si>
+  <si>
+    <t>Имя пользователя или Email</t>
+  </si>
+  <si>
+    <t>Имя пользователя или пароль неверны.</t>
+  </si>
+  <si>
+    <t>Пожалуйста, подсоединитесь к live системе, чтобы получить последние данные.</t>
+  </si>
+  <si>
+    <t>Просмотр Отчёта</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Money Saver это приложение для управления личным бюджетом и финансовыми потоками, предназначенное, как следует из его названия, для того, чтобы помочь сохранения Ваши деньги.</t>
+  </si>
+  <si>
+    <t>Список с интервальными транзакциями не может быть установлен</t>
+  </si>
+  <si>
+    <t>Вы достигли максимума разрешённых элементов [{0}]. Удалите другие элементы перед добавлением новых.</t>
+  </si>
+  <si>
+    <t>Май</t>
+  </si>
+  <si>
+    <t>По достижению порога, бюджет изменит свой цвет, чтобы привлечь Ваше внимание.</t>
+  </si>
+  <si>
+    <t>Категория транзакций</t>
+  </si>
+  <si>
+    <t>Предопределённые временные периоды</t>
+  </si>
+  <si>
+    <t>Периодические появления для расходов или доходов</t>
+  </si>
+  <si>
+    <t>Это имя уже существует.</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Управление поользователями для доступа к приложению.</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Название места</t>
+  </si>
+  <si>
+    <t>Ошибка сети. Пожалуйста, проверьте соединение с интернетом.</t>
+  </si>
+  <si>
+    <t>Новый и проверочный пароли не совпадают</t>
+  </si>
+  <si>
+    <t>Новый пароль</t>
+  </si>
+  <si>
+    <t>Уведомление</t>
+  </si>
+  <si>
+    <t>Ноябрь</t>
+  </si>
+  <si>
+    <t>Октябрь</t>
+  </si>
+  <si>
+    <t>Офлайн</t>
+  </si>
+  <si>
+    <t>Старый пароль</t>
+  </si>
+  <si>
+    <t>Старый пароль неверен</t>
+  </si>
+  <si>
+    <t>Пароль</t>
+  </si>
+  <si>
+    <t>Отправка пароля...</t>
+  </si>
+  <si>
+    <t>Ошибка при отправке пароля. Пожалуйста, попробуйте снова</t>
+  </si>
+  <si>
+    <t>Ваш Пароль отослан на указанный email</t>
+  </si>
+  <si>
+    <t>Пароль не может быть изменён по следующим причинам:</t>
+  </si>
+  <si>
+    <t>Период</t>
+  </si>
+  <si>
+    <t>Место</t>
+  </si>
+  <si>
+    <t>18-й Восемнадцатый</t>
+  </si>
+  <si>
+    <t>8-й Восьмой</t>
+  </si>
+  <si>
+    <t>11-й Одиннадцатый</t>
+  </si>
+  <si>
+    <t>15-й Пятнадцатый</t>
+  </si>
+  <si>
+    <t>5-й Пятый</t>
+  </si>
+  <si>
+    <t>Первый</t>
+  </si>
+  <si>
+    <t>4-й Четвёртый</t>
+  </si>
+  <si>
+    <t>14-й Четырнадцатый</t>
+  </si>
+  <si>
+    <t>Последний</t>
+  </si>
+  <si>
+    <t>19-й Девятнадцатый</t>
+  </si>
+  <si>
+    <t>9-й Девятый</t>
+  </si>
+  <si>
+    <t>2-й Второй</t>
+  </si>
+  <si>
+    <t>17-й Семнадцатый</t>
+  </si>
+  <si>
+    <t>7-й Седьмой</t>
+  </si>
+  <si>
+    <t>6-й Шестой</t>
+  </si>
+  <si>
+    <t>16-й Шестнадцатый</t>
+  </si>
+  <si>
+    <t>10-й Десятый</t>
+  </si>
+  <si>
+    <t>3-й Третий</t>
+  </si>
+  <si>
+    <t>13-й Тринадцатый</t>
+  </si>
+  <si>
+    <t>30-й Тридцатый</t>
+  </si>
+  <si>
+    <t>31-й Тридцать первый</t>
+  </si>
+  <si>
+    <t>12-й Двенадцатый</t>
+  </si>
+  <si>
+    <t>20-й Двадцатый</t>
+  </si>
+  <si>
+    <t>Назначение</t>
+  </si>
+  <si>
+    <t>Повторить по истечении срока действия</t>
+  </si>
+  <si>
+    <t>Причина</t>
+  </si>
+  <si>
+    <t>Причины</t>
+  </si>
+  <si>
+    <t>Диапазон Появлений</t>
+  </si>
+  <si>
+    <t>Регистрация</t>
+  </si>
+  <si>
+    <t>Регистрация...</t>
+  </si>
+  <si>
+    <t>* Заполните все поля для регистрации</t>
+  </si>
+  <si>
+    <t>Регистрация нового аккаунта</t>
+  </si>
+  <si>
+    <t>Регистрация успешно завершена</t>
+  </si>
+  <si>
+    <t>Ошибка регистрации</t>
+  </si>
+  <si>
+    <t>Напоминания не могут быть установлены</t>
+  </si>
+  <si>
+    <t>Напоминание для пользователя:</t>
+  </si>
+  <si>
+    <t>Отчёты</t>
+  </si>
+  <si>
+    <t>Сумма Транзкции</t>
+  </si>
+  <si>
+    <t>Бюджет Транзакции</t>
+  </si>
+  <si>
+    <t>Транзакции по Периоду</t>
+  </si>
+  <si>
+    <t>Категории Транзакции</t>
+  </si>
+  <si>
+    <t>Место Транзакции</t>
+  </si>
+  <si>
+    <t>Причина Транзакции</t>
+  </si>
+  <si>
+    <t>ru-RU</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>Ошибка сохранения. Пожалуйста, попробуйте снова.</t>
+  </si>
+  <si>
+    <t>Второй</t>
+  </si>
+  <si>
+    <t>Сентябрь</t>
+  </si>
+  <si>
+    <t>Сортировать по</t>
+  </si>
+  <si>
+    <t>Предложенное время:</t>
+  </si>
+  <si>
+    <t>Загрузка данных...</t>
+  </si>
+  <si>
+    <t>Третий</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Подсказка</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>До</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>Время До</t>
+  </si>
+  <si>
+    <t>Транзакция</t>
+  </si>
+  <si>
+    <t>причина транзакции</t>
+  </si>
+  <si>
+    <t>причины транзакции</t>
+  </si>
+  <si>
+    <t>Тип Транзакции</t>
+  </si>
+  <si>
+    <t>Типы Частот</t>
+  </si>
+  <si>
+    <t>Тип Частоты</t>
+  </si>
+  <si>
+    <t>Скорее всего, режим offline не обновлён.</t>
+  </si>
+  <si>
+    <t>Регистрируясь Вы соглашаетесь с нашими Услоиями Обслуживания и Политикой Конфиденциальности</t>
+  </si>
+  <si>
+    <t>Ошибка регистрации. Пожалуйста, попробуйте снова</t>
+  </si>
+  <si>
+    <t>28-й Двадцать восьмой</t>
+  </si>
+  <si>
+    <t>25-й Двадцать пятый</t>
+  </si>
+  <si>
+    <t>21-й Двадцать первый</t>
+  </si>
+  <si>
+    <t>24-й Двадцать четвёртый</t>
+  </si>
+  <si>
+    <t>29-й Двадцать девятый</t>
+  </si>
+  <si>
+    <t>22-й Двадцать второй</t>
+  </si>
+  <si>
+    <t>27-й Двадцать седьмой</t>
+  </si>
+  <si>
+    <t>26-й Двадцать шестой</t>
+  </si>
+  <si>
+    <t>23-й Двадцать третий</t>
+  </si>
+  <si>
+    <t>Список уведомлений отображает напоминания от всех пользователей данного устройства.</t>
+  </si>
+  <si>
+    <t>Уведомления для напоминания считывания транзакций</t>
+  </si>
+  <si>
+    <t>Все транзакции в соответствии с выбранны диапазон дат.</t>
+  </si>
+  <si>
+    <t>Транзакции, сгруппированные по имени места в соответствии с выбранным диапазоном дат.</t>
+  </si>
+  <si>
+    <t>Транзакции, сгруппированные по частоте в соответствии с выбранным диапазоном дат.</t>
+  </si>
+  <si>
+    <t>Транзакции, сгруппированные по категории в соответствии с выбранным диапазоном дат.</t>
+  </si>
+  <si>
+    <t>Транзакции, сгруппированные по причине в соответствии с выбранным диапазоном дат.</t>
+  </si>
+  <si>
+    <t>Управление пользователями для доступа к этому приложению</t>
+  </si>
+  <si>
+    <t>AppBarButtonCategory</t>
+  </si>
+  <si>
+    <t>AppBarButtonReason</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>причина</t>
+  </si>
+  <si>
+    <t>категория</t>
+  </si>
+  <si>
+    <t>κατηγορία</t>
+  </si>
+  <si>
+    <t>αιτία</t>
+  </si>
+  <si>
+    <t>Money Saver is a personal cash flow and budget management app which will help you save money. 
+Although internet connection is required, you need to be online at least when register for a new user account.
 THE APP IS EQUALLY FUNCTIONING ONLINE AND OFFLINE.
 The app is provided free of charge and completely without any ads. Though you can contribute and show your appreciation by donating to my paypal account, yiannisezn@hotmail.com
-Capture all your transactions is the main functionality of the app. In addition there are several other features that supports the capturing of transactions. 
-Administration to manage categories and sub-categories (called reasons), notifications used as reminders, user management to update your personal details and above all is one of the key features of this app, the Intervals. Here you can set all interval income or expenses like monthly payments or more complex rules like every second Monday of March!
-Budget is a transaction supported feature which let you set long or short term budgets and give you better control over your cash.
-Reports is the value added of this app. It gives you more control over your transactions which allows you to visualize better your cash movements with various criteria.</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Budget Management,Monsa,Cash assistant,Transactions reports,Interval income/expense</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>H λίστα με τις επαναλαμβανόμενες συναλλαγές, δεν μπορεί να δημιουργηθεί.</t>
-  </si>
-  <si>
-    <t>Админ</t>
-  </si>
-  <si>
-    <t>Предел Бюджета</t>
-  </si>
-  <si>
-    <t>Категории</t>
-  </si>
-  <si>
-    <t>Частоты</t>
-  </si>
-  <si>
-    <t>Интервал</t>
-  </si>
-  <si>
-    <t>Уведомления</t>
-  </si>
-  <si>
-    <t>Безопасность</t>
-  </si>
-  <si>
-    <t>Причины Транзакции</t>
-  </si>
-  <si>
-    <t>Сумма</t>
-  </si>
-  <si>
-    <t>Сумма от</t>
-  </si>
-  <si>
-    <t>Сумма от не может превышать Сумму до</t>
-  </si>
-  <si>
-    <t>Сумма до</t>
-  </si>
-  <si>
-    <t>о программе</t>
-  </si>
-  <si>
-    <t>добавить</t>
-  </si>
-  <si>
-    <t>бюджет</t>
-  </si>
-  <si>
-    <t>отмена</t>
-  </si>
-  <si>
-    <t>продолжить</t>
-  </si>
-  <si>
-    <t>удалить</t>
-  </si>
-  <si>
-    <t>помощь</t>
-  </si>
-  <si>
-    <t>главное меню</t>
-  </si>
-  <si>
-    <t>регистрация</t>
-  </si>
-  <si>
-    <t>сохранить</t>
-  </si>
-  <si>
-    <t>отослать</t>
-  </si>
-  <si>
-    <t>войти</t>
-  </si>
-  <si>
-    <t>транзакция</t>
-  </si>
-  <si>
-    <t>Апрель</t>
-  </si>
-  <si>
-    <t>Август</t>
-  </si>
-  <si>
-    <t>Бюджет</t>
-  </si>
-  <si>
-    <t>Бюджеты</t>
-  </si>
-  <si>
-    <t>Статус Бюджета</t>
-  </si>
-  <si>
-    <t>Синхронизация. Пожалуйста, подождите...</t>
-  </si>
-  <si>
-    <t>Категория</t>
-  </si>
-  <si>
-    <t>* Это будет выбранной опцией в зависимости от времени дня</t>
-  </si>
-  <si>
-    <t>Изменить Пароль</t>
-  </si>
-  <si>
-    <t>Цвет</t>
-  </si>
-  <si>
-    <t>Комментарии</t>
-  </si>
-  <si>
-    <t>Подтверждение удаления</t>
-  </si>
-  <si>
-    <t>Подтверждение пароля</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Дата От</t>
-  </si>
-  <si>
-    <t>Дата От не может быть больше, чем Дата До</t>
-  </si>
-  <si>
-    <t>Дата До</t>
-  </si>
-  <si>
-    <t>дней</t>
-  </si>
-  <si>
-    <t>Декабрь</t>
-  </si>
-  <si>
-    <t>Вы уверены, что хотите удалить?</t>
-  </si>
-  <si>
-    <t>Длительность</t>
-  </si>
-  <si>
-    <t>Конец</t>
-  </si>
-  <si>
-    <t>{0} {1} не прошли проверку.</t>
-  </si>
-  <si>
-    <t>Обновите их из списка и сохраните заново.</t>
-  </si>
-  <si>
-    <t>Несколько {0} с одинаковыми именами.</t>
-  </si>
-  <si>
-    <t>Пожалуйста, используйте только уникальные имена.</t>
-  </si>
-  <si>
-    <t>Еще {0} не прошёл проверку.</t>
-  </si>
-  <si>
-    <t>Обновите это из списка и сохраните заново.</t>
-  </si>
-  <si>
-    <t>Февраль</t>
-  </si>
-  <si>
-    <t>Забыли Пароль</t>
-  </si>
-  <si>
-    <t>Забыли Пароль?</t>
-  </si>
-  <si>
-    <t>Четвёртый</t>
-  </si>
-  <si>
-    <t>Пятница</t>
-  </si>
-  <si>
-    <t>Элемент Другие не может быть удалён.</t>
-  </si>
-  <si>
-    <t>Интервал Транзакций</t>
-  </si>
-  <si>
-    <t>Вы выбрали все транзакции.</t>
-  </si>
-  <si>
-    <t>Пожалуйста, выберите завершённые транзакции аккуратно. Указанные транзакции более не будут отображаться.</t>
-  </si>
-  <si>
-    <t>Вы не выбрали ни одной транзакции.</t>
-  </si>
-  <si>
-    <t>Вы выбрали {0} из {1} транзакций.</t>
-  </si>
-  <si>
-    <t>Список всех автоматически сгенерированных транзакций в соответствии с интервалом комманды.</t>
-  </si>
-  <si>
-    <t>Выберите завершённые транзакции</t>
-  </si>
-  <si>
-    <t>Январь</t>
-  </si>
-  <si>
-    <t>Июль</t>
-  </si>
-  <si>
-    <t>Июнь</t>
-  </si>
-  <si>
-    <t>Вход не выполнен. Пожалуйста, попробуйте снова.</t>
-  </si>
-  <si>
-    <t>Попытка входа...</t>
-  </si>
-  <si>
-    <t>Вход</t>
-  </si>
-  <si>
-    <t>Вход не выполнен</t>
-  </si>
-  <si>
-    <t>Пожалуйста, проверьте следующие ошибки</t>
-  </si>
-  <si>
-    <t>Вход выполнен успешно</t>
-  </si>
-  <si>
-    <t>Главный</t>
-  </si>
-  <si>
-    <t>Транзакции</t>
-  </si>
-  <si>
-    <t>Март</t>
-  </si>
-  <si>
-    <t>Время От</t>
-  </si>
-  <si>
-    <t>От</t>
-  </si>
-  <si>
-    <t>Начало</t>
-  </si>
-  <si>
-    <t>Воскресенье</t>
-  </si>
-  <si>
-    <t>попробовать снова</t>
-  </si>
-  <si>
-    <t>Вторник</t>
-  </si>
-  <si>
-    <t>соединение</t>
-  </si>
-  <si>
-    <t>Детали Пользователя</t>
-  </si>
-  <si>
-    <t>Имя пользователя</t>
-  </si>
-  <si>
-    <t>Имя пользователя или Email</t>
-  </si>
-  <si>
-    <t>Имя пользователя или пароль неверны.</t>
-  </si>
-  <si>
-    <t>Пожалуйста, подсоединитесь к live системе, чтобы получить последние данные.</t>
-  </si>
-  <si>
-    <t>Просмотр Отчёта</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>Money Saver это приложение для управления личным бюджетом и финансовыми потоками, предназначенное, как следует из его названия, для того, чтобы помочь сохранения Ваши деньги.</t>
-  </si>
-  <si>
-    <t>Список с интервальными транзакциями не может быть установлен</t>
-  </si>
-  <si>
-    <t>Вы достигли максимума разрешённых элементов [{0}]. Удалите другие элементы перед добавлением новых.</t>
-  </si>
-  <si>
-    <t>Май</t>
-  </si>
-  <si>
-    <t>По достижению порога, бюджет изменит свой цвет, чтобы привлечь Ваше внимание.</t>
-  </si>
-  <si>
-    <t>Категория транзакций</t>
-  </si>
-  <si>
-    <t>Предопределённые временные периоды</t>
-  </si>
-  <si>
-    <t>Периодические появления для расходов или доходов</t>
-  </si>
-  <si>
-    <t>Это имя уже существует.</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Управление поользователями для доступа к приложению.</t>
-  </si>
-  <si>
-    <t>Понедельник</t>
-  </si>
-  <si>
-    <t>Название места</t>
-  </si>
-  <si>
-    <t>Ошибка сети. Пожалуйста, проверьте соединение с интернетом.</t>
-  </si>
-  <si>
-    <t>Новый и проверочный пароли не совпадают</t>
-  </si>
-  <si>
-    <t>Новый пароль</t>
-  </si>
-  <si>
-    <t>Уведомление</t>
-  </si>
-  <si>
-    <t>Ноябрь</t>
-  </si>
-  <si>
-    <t>Октябрь</t>
-  </si>
-  <si>
-    <t>Офлайн</t>
-  </si>
-  <si>
-    <t>Старый пароль</t>
-  </si>
-  <si>
-    <t>Старый пароль неверен</t>
-  </si>
-  <si>
-    <t>Пароль</t>
-  </si>
-  <si>
-    <t>Отправка пароля...</t>
-  </si>
-  <si>
-    <t>Ошибка при отправке пароля. Пожалуйста, попробуйте снова</t>
-  </si>
-  <si>
-    <t>Ваш Пароль отослан на указанный email</t>
-  </si>
-  <si>
-    <t>Пароль не может быть изменён по следующим причинам:</t>
-  </si>
-  <si>
-    <t>Период</t>
-  </si>
-  <si>
-    <t>Место</t>
-  </si>
-  <si>
-    <t>18-й Восемнадцатый</t>
-  </si>
-  <si>
-    <t>8-й Восьмой</t>
-  </si>
-  <si>
-    <t>11-й Одиннадцатый</t>
-  </si>
-  <si>
-    <t>15-й Пятнадцатый</t>
-  </si>
-  <si>
-    <t>5-й Пятый</t>
-  </si>
-  <si>
-    <t>Первый</t>
-  </si>
-  <si>
-    <t>4-й Четвёртый</t>
-  </si>
-  <si>
-    <t>14-й Четырнадцатый</t>
-  </si>
-  <si>
-    <t>Последний</t>
-  </si>
-  <si>
-    <t>19-й Девятнадцатый</t>
-  </si>
-  <si>
-    <t>9-й Девятый</t>
-  </si>
-  <si>
-    <t>2-й Второй</t>
-  </si>
-  <si>
-    <t>17-й Семнадцатый</t>
-  </si>
-  <si>
-    <t>7-й Седьмой</t>
-  </si>
-  <si>
-    <t>6-й Шестой</t>
-  </si>
-  <si>
-    <t>16-й Шестнадцатый</t>
-  </si>
-  <si>
-    <t>10-й Десятый</t>
-  </si>
-  <si>
-    <t>3-й Третий</t>
-  </si>
-  <si>
-    <t>13-й Тринадцатый</t>
-  </si>
-  <si>
-    <t>30-й Тридцатый</t>
-  </si>
-  <si>
-    <t>31-й Тридцать первый</t>
-  </si>
-  <si>
-    <t>12-й Двенадцатый</t>
-  </si>
-  <si>
-    <t>20-й Двадцатый</t>
-  </si>
-  <si>
-    <t>Назначение</t>
-  </si>
-  <si>
-    <t>Повторить по истечении срока действия</t>
-  </si>
-  <si>
-    <t>Причина</t>
-  </si>
-  <si>
-    <t>Причины</t>
-  </si>
-  <si>
-    <t>Диапазон Появлений</t>
-  </si>
-  <si>
-    <t>Регистрация</t>
-  </si>
-  <si>
-    <t>Регистрация...</t>
-  </si>
-  <si>
-    <t>* Заполните все поля для регистрации</t>
-  </si>
-  <si>
-    <t>Регистрация нового аккаунта</t>
-  </si>
-  <si>
-    <t>Регистрация успешно завершена</t>
-  </si>
-  <si>
-    <t>Ошибка регистрации</t>
-  </si>
-  <si>
-    <t>Напоминания не могут быть установлены</t>
-  </si>
-  <si>
-    <t>Напоминание для пользователя:</t>
-  </si>
-  <si>
-    <t>Отчёты</t>
-  </si>
-  <si>
-    <t>Сумма Транзкции</t>
-  </si>
-  <si>
-    <t>Бюджет Транзакции</t>
-  </si>
-  <si>
-    <t>Транзакции по Периоду</t>
-  </si>
-  <si>
-    <t>Категории Транзакции</t>
-  </si>
-  <si>
-    <t>Место Транзакции</t>
-  </si>
-  <si>
-    <t>Причина Транзакции</t>
-  </si>
-  <si>
-    <t>ru-RU</t>
-  </si>
-  <si>
-    <t>Суббота</t>
-  </si>
-  <si>
-    <t>Ошибка сохранения. Пожалуйста, попробуйте снова.</t>
-  </si>
-  <si>
-    <t>Второй</t>
-  </si>
-  <si>
-    <t>Сентябрь</t>
-  </si>
-  <si>
-    <t>Сортировать по</t>
-  </si>
-  <si>
-    <t>Предложенное время:</t>
-  </si>
-  <si>
-    <t>Загрузка данных...</t>
-  </si>
-  <si>
-    <t>Третий</t>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>Подсказка</t>
-  </si>
-  <si>
-    <t>Время</t>
-  </si>
-  <si>
-    <t>До</t>
-  </si>
-  <si>
-    <t>Всего</t>
-  </si>
-  <si>
-    <t>Время До</t>
-  </si>
-  <si>
-    <t>Транзакция</t>
-  </si>
-  <si>
-    <t>причина транзакции</t>
-  </si>
-  <si>
-    <t>причины транзакции</t>
-  </si>
-  <si>
-    <t>Тип Транзакции</t>
-  </si>
-  <si>
-    <t>Типы Частот</t>
-  </si>
-  <si>
-    <t>Тип Частоты</t>
-  </si>
-  <si>
-    <t>Скорее всего, режим offline не обновлён.</t>
-  </si>
-  <si>
-    <t>Регистрируясь Вы соглашаетесь с нашими Услоиями Обслуживания и Политикой Конфиденциальности</t>
-  </si>
-  <si>
-    <t>Ошибка регистрации. Пожалуйста, попробуйте снова</t>
-  </si>
-  <si>
-    <t>28-й Двадцать восьмой</t>
-  </si>
-  <si>
-    <t>25-й Двадцать пятый</t>
-  </si>
-  <si>
-    <t>21-й Двадцать первый</t>
-  </si>
-  <si>
-    <t>24-й Двадцать четвёртый</t>
-  </si>
-  <si>
-    <t>29-й Двадцать девятый</t>
-  </si>
-  <si>
-    <t>22-й Двадцать второй</t>
-  </si>
-  <si>
-    <t>27-й Двадцать седьмой</t>
-  </si>
-  <si>
-    <t>26-й Двадцать шестой</t>
-  </si>
-  <si>
-    <t>23-й Двадцать третий</t>
-  </si>
-  <si>
-    <t>Список уведомлений отображает напоминания от всех пользователей данного устройства.</t>
-  </si>
-  <si>
-    <t>Уведомления для напоминания считывания транзакций</t>
-  </si>
-  <si>
-    <t>Все транзакции в соответствии с выбранны диапазон дат.</t>
-  </si>
-  <si>
-    <t>Транзакции, сгруппированные по имени места в соответствии с выбранным диапазоном дат.</t>
-  </si>
-  <si>
-    <t>Транзакции, сгруппированные по частоте в соответствии с выбранным диапазоном дат.</t>
-  </si>
-  <si>
-    <t>Транзакции, сгруппированные по категории в соответствии с выбранным диапазоном дат.</t>
-  </si>
-  <si>
-    <t>Транзакции, сгруппированные по причине в соответствии с выбранным диапазоном дат.</t>
-  </si>
-  <si>
-    <t>Управление пользователями для доступа к этому приложению</t>
-  </si>
-  <si>
-    <t>AppBarButtonCategory</t>
-  </si>
-  <si>
-    <t>AppBarButtonReason</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>причина</t>
-  </si>
-  <si>
-    <t>категория</t>
-  </si>
-  <si>
-    <t>κατηγορία</t>
-  </si>
-  <si>
-    <t>αιτία</t>
+Capturing all your transactions is the main feature of the app. In addition, as explained below, there are several other features that support the capturing of transactions. 
+Administration 
+To manage categories and sub-categories (called reasons), notifications used as reminders, user management to update your personal details, but above all is one of the key features of this app, the Intervals. Here you can set all interval income or expenses like monthly payments or more complex rules like every second Monday of March!
+Budget 
+Is a transaction supported feature which let you set long or short term budgets and give you better control over your cash.
+Reports 
+Is the value added of this app. It gives you more control over your transactions which allows you to better visualize your cash movements with various criteria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Είναι ένα προσωπικό εργαλείο για τον καλύτερο έλεγχο των χρημάτων και του προϋπολογισμού  σας, βοηθώντας σας να εξοικονομήσετε περισσότερα χρήματα.
+Παρ’ όλο που η σύνδεση με το internet δεν είναι απαραίτητη, πρέπει να είστε συνδεδεμένοι τουλάχιστον κατά την εγγραφή νέου χρήστη.
+ΤΟ ΠΡΟΓΡΑΜΜΑ ΕΧΕΙ ΤΙΣ ΙΔΙΕΣ ΔΥΝΑΤΟΤΗΤΕΣ ΟΤΑΝ ΕΙΝΑΙ ONLINE ΚΑΙ OFFLINE
+Το πρόγραμμα παρέχετε δωρεάν και  εντελώς χωρίς διαφημίσεις. Μπορείτε όμως να συνεισφέρετε επιδεικνύοντας την εκτίμηση σας με το να κάνετε δωρεά στο PayPal account μου, yiannisezn@hotmail.com
+Η καταγραφή όλων των συναλλαγών σας είναι η κύρια λειτουργία του προγράμματος. Κατ’ επέκταση, όπως θα δείτε και πιο κάτω, υπάρχουν αρκετές άλλες λειτουργίες που υποστηρίζουν την καταγραφή των συναλλαγών. 
+Διαχείριση
+Διαχείριση κατηγοριών και υποκατηγοριών (ούτω καλούμενοι λόγοι), ειδοποιήσεις που μπορείτε να χρησιμοποιήσετε ως υπενθυμίσεις, διαχείριση χρήστη, αλλά πάνω απ’ όλα είναι οι επαναλαμβανόμενες πληρωμές. Εδώ μπορείτε να καθορήσετε όλες τις επαναλαμβανόμενες πληρωμές για εισοδήματα και έξοδα όπως μια μηνιαία πληρωμή, ή πιο περίπλοκα όπως κάθε δεύτερη Τρίτη του Μάρτη.  
+Προϋπολογισμός 
+Βοηθητική οθόνη για τις συναλλαγές επιτρέποντάς σας να δημιουργήσετε μακροπρόθεσμους ή βραχυπρόθεσμους προϋπολογισμούς δίνοντας σας έτσι, ακόμα περισσότερο έλεγχο των χρημάτων σας.
+Εκθέσεις
+ΟΙ εκθέσεις πάντα δίνουν περισσότερο έλεγχο των συναλλαγών επιτρέποντας σας να εικονογραφήσετε καλύτερα τις κινήσεις των χρημάτων σας.
+</t>
   </si>
 </sst>
 </file>
@@ -2772,15 +2789,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.5703125" customWidth="1"/>
-    <col min="3" max="3" width="75" customWidth="1"/>
+    <col min="3" max="3" width="86" customWidth="1"/>
     <col min="4" max="4" width="118.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.140625" customWidth="1"/>
   </cols>
@@ -2799,26 +2814,29 @@
         <v>346</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="375" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>567</v>
+        <v>785</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>569</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2829,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>363</v>
@@ -2843,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>364</v>
@@ -2857,7 +2875,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>365</v>
@@ -2871,7 +2889,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>366</v>
@@ -2885,7 +2903,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>367</v>
@@ -2899,7 +2917,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>368</v>
@@ -2913,7 +2931,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>369</v>
@@ -2927,7 +2945,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>370</v>
@@ -2941,7 +2959,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>371</v>
@@ -2955,7 +2973,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>372</v>
@@ -2969,7 +2987,7 @@
         <v>347</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>373</v>
@@ -2983,7 +3001,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>374</v>
@@ -2997,7 +3015,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>375</v>
@@ -3011,7 +3029,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>376</v>
@@ -3025,7 +3043,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>377</v>
@@ -3039,7 +3057,7 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>378</v>
@@ -3047,16 +3065,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B20" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C20" t="s">
+        <v>782</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>783</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3067,7 +3085,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>379</v>
@@ -3081,7 +3099,7 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>380</v>
@@ -3095,7 +3113,7 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>381</v>
@@ -3109,7 +3127,7 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>382</v>
@@ -3117,16 +3135,16 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>778</v>
+      </c>
+      <c r="B25" t="s">
         <v>779</v>
       </c>
-      <c r="B25" t="s">
-        <v>780</v>
-      </c>
       <c r="C25" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3137,7 +3155,7 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>383</v>
@@ -3151,7 +3169,7 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>384</v>
@@ -3165,7 +3183,7 @@
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>385</v>
@@ -3179,7 +3197,7 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>386</v>
@@ -3193,7 +3211,7 @@
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>387</v>
@@ -3221,7 +3239,7 @@
         <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>388</v>
@@ -3235,7 +3253,7 @@
         <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>389</v>
@@ -3249,7 +3267,7 @@
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>390</v>
@@ -3263,7 +3281,7 @@
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>391</v>
@@ -3277,7 +3295,7 @@
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>392</v>
@@ -3291,7 +3309,7 @@
         <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>393</v>
@@ -3305,7 +3323,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>365</v>
@@ -3319,7 +3337,7 @@
         <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>394</v>
@@ -3333,7 +3351,7 @@
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>395</v>
@@ -3347,7 +3365,7 @@
         <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>396</v>
@@ -3361,7 +3379,7 @@
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>397</v>
@@ -3375,7 +3393,7 @@
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>398</v>
@@ -3389,7 +3407,7 @@
         <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>399</v>
@@ -3403,7 +3421,7 @@
         <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>400</v>
@@ -3417,7 +3435,7 @@
         <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>401</v>
@@ -3431,7 +3449,7 @@
         <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>402</v>
@@ -3445,7 +3463,7 @@
         <v>348</v>
       </c>
       <c r="C48" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>403</v>
@@ -3459,7 +3477,7 @@
         <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>404</v>
@@ -3473,7 +3491,7 @@
         <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>405</v>
@@ -3487,7 +3505,7 @@
         <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>406</v>
@@ -3501,7 +3519,7 @@
         <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>407</v>
@@ -3515,7 +3533,7 @@
         <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>408</v>
@@ -3543,7 +3561,7 @@
         <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>410</v>
@@ -3557,7 +3575,7 @@
         <v>83</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>83</v>
@@ -3568,7 +3586,7 @@
         <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>84</v>
@@ -3582,7 +3600,7 @@
         <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>411</v>
@@ -3593,7 +3611,7 @@
         <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>412</v>
@@ -3607,7 +3625,7 @@
         <v>89</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>89</v>
@@ -3618,7 +3636,7 @@
         <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>90</v>
@@ -3632,7 +3650,7 @@
         <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>413</v>
@@ -3646,7 +3664,7 @@
         <v>93</v>
       </c>
       <c r="C63" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>414</v>
@@ -3660,7 +3678,7 @@
         <v>95</v>
       </c>
       <c r="C64" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>415</v>
@@ -3674,7 +3692,7 @@
         <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>416</v>
@@ -3688,7 +3706,7 @@
         <v>97</v>
       </c>
       <c r="C66" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>417</v>
@@ -3702,7 +3720,7 @@
         <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>418</v>
@@ -3716,7 +3734,7 @@
         <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>419</v>
@@ -3730,7 +3748,7 @@
         <v>563</v>
       </c>
       <c r="C69" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>562</v>
@@ -3744,10 +3762,10 @@
         <v>566</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3758,7 +3776,7 @@
         <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>420</v>
@@ -3772,7 +3790,7 @@
         <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>421</v>
@@ -3786,7 +3804,7 @@
         <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>422</v>
@@ -3800,7 +3818,7 @@
         <v>108</v>
       </c>
       <c r="C74" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>423</v>
@@ -3814,7 +3832,7 @@
         <v>110</v>
       </c>
       <c r="C75" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>424</v>
@@ -3828,7 +3846,7 @@
         <v>112</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>425</v>
@@ -3839,7 +3857,7 @@
         <v>113</v>
       </c>
       <c r="C77" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>426</v>
@@ -3853,7 +3871,7 @@
         <v>114</v>
       </c>
       <c r="C78" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>427</v>
@@ -3867,7 +3885,7 @@
         <v>115</v>
       </c>
       <c r="C79" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>428</v>
@@ -3881,7 +3899,7 @@
         <v>116</v>
       </c>
       <c r="C80" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>429</v>
@@ -3895,7 +3913,7 @@
         <v>118</v>
       </c>
       <c r="C81" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>430</v>
@@ -3909,7 +3927,7 @@
         <v>349</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>431</v>
@@ -3923,7 +3941,7 @@
         <v>120</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>432</v>
@@ -3937,7 +3955,7 @@
         <v>122</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>433</v>
@@ -3951,7 +3969,7 @@
         <v>124</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>434</v>
@@ -3965,7 +3983,7 @@
         <v>126</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>435</v>
@@ -3979,7 +3997,7 @@
         <v>127</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>436</v>
@@ -3993,7 +4011,7 @@
         <v>52</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>390</v>
@@ -4007,7 +4025,7 @@
         <v>130</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>437</v>
@@ -4021,7 +4039,7 @@
         <v>131</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>438</v>
@@ -4035,7 +4053,7 @@
         <v>133</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>439</v>
@@ -4049,7 +4067,7 @@
         <v>134</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>440</v>
@@ -4063,7 +4081,7 @@
         <v>136</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>441</v>
@@ -4077,7 +4095,7 @@
         <v>138</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>442</v>
@@ -4091,7 +4109,7 @@
         <v>350</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>443</v>
@@ -4105,7 +4123,7 @@
         <v>351</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>444</v>
@@ -4119,7 +4137,7 @@
         <v>142</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>445</v>
@@ -4133,7 +4151,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>446</v>
@@ -4147,7 +4165,7 @@
         <v>146</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>447</v>
@@ -4161,7 +4179,7 @@
         <v>352</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>448</v>
@@ -4175,7 +4193,7 @@
         <v>149</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>449</v>
@@ -4189,7 +4207,7 @@
         <v>151</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>450</v>
@@ -4203,7 +4221,7 @@
         <v>153</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>451</v>
@@ -4217,7 +4235,7 @@
         <v>155</v>
       </c>
       <c r="C104" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>452</v>
@@ -4231,7 +4249,7 @@
         <v>156</v>
       </c>
       <c r="C105" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>453</v>
@@ -4245,7 +4263,7 @@
         <v>157</v>
       </c>
       <c r="C106" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>454</v>
@@ -4259,7 +4277,7 @@
         <v>159</v>
       </c>
       <c r="C107" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>455</v>
@@ -4284,7 +4302,7 @@
         <v>162</v>
       </c>
       <c r="C109" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>457</v>
@@ -4298,7 +4316,7 @@
         <v>164</v>
       </c>
       <c r="C110" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>458</v>
@@ -4312,7 +4330,7 @@
         <v>166</v>
       </c>
       <c r="C111" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>459</v>
@@ -4326,7 +4344,7 @@
         <v>168</v>
       </c>
       <c r="C112" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>460</v>
@@ -4340,7 +4358,7 @@
         <v>169</v>
       </c>
       <c r="C113" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>461</v>
@@ -4354,7 +4372,7 @@
         <v>171</v>
       </c>
       <c r="C114" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>462</v>
@@ -4368,7 +4386,7 @@
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>368</v>
@@ -4382,7 +4400,7 @@
         <v>173</v>
       </c>
       <c r="C116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>463</v>
@@ -4396,7 +4414,7 @@
         <v>174</v>
       </c>
       <c r="C117" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>464</v>
@@ -4410,7 +4428,7 @@
         <v>176</v>
       </c>
       <c r="C118" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>465</v>
@@ -4424,7 +4442,7 @@
         <v>178</v>
       </c>
       <c r="C119" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>466</v>
@@ -4438,7 +4456,7 @@
         <v>180</v>
       </c>
       <c r="C120" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>467</v>
@@ -4452,7 +4470,7 @@
         <v>181</v>
       </c>
       <c r="C121" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>468</v>
@@ -4466,7 +4484,7 @@
         <v>183</v>
       </c>
       <c r="C122" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>469</v>
@@ -4480,7 +4498,7 @@
         <v>185</v>
       </c>
       <c r="C123" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>470</v>
@@ -4494,7 +4512,7 @@
         <v>187</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>471</v>
@@ -4508,7 +4526,7 @@
         <v>353</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>472</v>
@@ -4522,7 +4540,7 @@
         <v>189</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>473</v>
@@ -4536,7 +4554,7 @@
         <v>190</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>474</v>
@@ -4550,7 +4568,7 @@
         <v>192</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>475</v>
@@ -4564,7 +4582,7 @@
         <v>354</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>476</v>
@@ -4578,7 +4596,7 @@
         <v>195</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>477</v>
@@ -4592,7 +4610,7 @@
         <v>197</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>478</v>
@@ -4606,7 +4624,7 @@
         <v>199</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>479</v>
@@ -4620,7 +4638,7 @@
         <v>201</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>480</v>
@@ -4634,7 +4652,7 @@
         <v>203</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>481</v>
@@ -4648,7 +4666,7 @@
         <v>205</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>482</v>
@@ -4662,7 +4680,7 @@
         <v>207</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>483</v>
@@ -4676,7 +4694,7 @@
         <v>209</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>484</v>
@@ -4690,7 +4708,7 @@
         <v>360</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>485</v>
@@ -4704,7 +4722,7 @@
         <v>212</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>486</v>
@@ -4718,7 +4736,7 @@
         <v>214</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>487</v>
@@ -4732,7 +4750,7 @@
         <v>216</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>488</v>
@@ -4746,7 +4764,7 @@
         <v>355</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>489</v>
@@ -4760,7 +4778,7 @@
         <v>219</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>490</v>
@@ -4774,7 +4792,7 @@
         <v>221</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>491</v>
@@ -4788,7 +4806,7 @@
         <v>223</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>492</v>
@@ -4802,7 +4820,7 @@
         <v>225</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>493</v>
@@ -4816,7 +4834,7 @@
         <v>356</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>494</v>
@@ -4830,7 +4848,7 @@
         <v>228</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>495</v>
@@ -4844,7 +4862,7 @@
         <v>357</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>496</v>
@@ -4858,7 +4876,7 @@
         <v>231</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>497</v>
@@ -4872,7 +4890,7 @@
         <v>358</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>498</v>
@@ -4886,7 +4904,7 @@
         <v>234</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>499</v>
@@ -4900,7 +4918,7 @@
         <v>236</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>500</v>
@@ -4914,7 +4932,7 @@
         <v>238</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>501</v>
@@ -4928,7 +4946,7 @@
         <v>359</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>502</v>
@@ -4942,7 +4960,7 @@
         <v>241</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>503</v>
@@ -4956,7 +4974,7 @@
         <v>243</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>504</v>
@@ -4970,7 +4988,7 @@
         <v>245</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>505</v>
@@ -4984,7 +5002,7 @@
         <v>247</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>506</v>
@@ -5010,7 +5028,7 @@
         <v>250</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>508</v>
@@ -5024,7 +5042,7 @@
         <v>361</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>509</v>
@@ -5038,7 +5056,7 @@
         <v>253</v>
       </c>
       <c r="C163" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>511</v>
@@ -5052,7 +5070,7 @@
         <v>254</v>
       </c>
       <c r="C164" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>512</v>
@@ -5080,7 +5098,7 @@
         <v>257</v>
       </c>
       <c r="C166" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>513</v>
@@ -5094,7 +5112,7 @@
         <v>259</v>
       </c>
       <c r="C167" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>514</v>
@@ -5108,7 +5126,7 @@
         <v>261</v>
       </c>
       <c r="C168" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>515</v>
@@ -5122,7 +5140,7 @@
         <v>263</v>
       </c>
       <c r="C169" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>516</v>
@@ -5136,7 +5154,7 @@
         <v>265</v>
       </c>
       <c r="C170" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>517</v>
@@ -5150,7 +5168,7 @@
         <v>267</v>
       </c>
       <c r="C171" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>518</v>
@@ -5164,7 +5182,7 @@
         <v>269</v>
       </c>
       <c r="C172" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>519</v>
@@ -5178,7 +5196,7 @@
         <v>271</v>
       </c>
       <c r="C173" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>520</v>
@@ -5192,7 +5210,7 @@
         <v>273</v>
       </c>
       <c r="C174" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>521</v>
@@ -5206,7 +5224,7 @@
         <v>275</v>
       </c>
       <c r="C175" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>522</v>
@@ -5220,7 +5238,7 @@
         <v>362</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>510</v>
@@ -5234,7 +5252,7 @@
         <v>276</v>
       </c>
       <c r="C177" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>523</v>
@@ -5248,7 +5266,7 @@
         <v>278</v>
       </c>
       <c r="C178" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>524</v>
@@ -5262,7 +5280,7 @@
         <v>280</v>
       </c>
       <c r="C179" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>525</v>
@@ -5276,7 +5294,7 @@
         <v>282</v>
       </c>
       <c r="C180" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>526</v>
@@ -5290,7 +5308,7 @@
         <v>284</v>
       </c>
       <c r="C181" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>527</v>
@@ -5304,7 +5322,7 @@
         <v>286</v>
       </c>
       <c r="C182" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>528</v>
@@ -5318,7 +5336,7 @@
         <v>288</v>
       </c>
       <c r="C183" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>529</v>
@@ -5346,7 +5364,7 @@
         <v>292</v>
       </c>
       <c r="C185" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>343</v>
@@ -5360,7 +5378,7 @@
         <v>293</v>
       </c>
       <c r="C186" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>530</v>
@@ -5374,7 +5392,7 @@
         <v>295</v>
       </c>
       <c r="C187" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>531</v>
@@ -5388,7 +5406,7 @@
         <v>296</v>
       </c>
       <c r="C188" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>532</v>
@@ -5402,7 +5420,7 @@
         <v>12</v>
       </c>
       <c r="C189" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>369</v>
@@ -5416,7 +5434,7 @@
         <v>298</v>
       </c>
       <c r="C190" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>533</v>
@@ -5430,7 +5448,7 @@
         <v>300</v>
       </c>
       <c r="C191" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>534</v>
@@ -5444,7 +5462,7 @@
         <v>301</v>
       </c>
       <c r="C192" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>535</v>
@@ -5458,7 +5476,7 @@
         <v>303</v>
       </c>
       <c r="C193" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>536</v>
@@ -5472,7 +5490,7 @@
         <v>304</v>
       </c>
       <c r="C194" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>537</v>
@@ -5486,7 +5504,7 @@
         <v>306</v>
       </c>
       <c r="C195" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>538</v>
@@ -5500,7 +5518,7 @@
         <v>307</v>
       </c>
       <c r="C196" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>539</v>
@@ -5514,7 +5532,7 @@
         <v>308</v>
       </c>
       <c r="C197" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>540</v>
@@ -5528,7 +5546,7 @@
         <v>309</v>
       </c>
       <c r="C198" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>541</v>
@@ -5542,7 +5560,7 @@
         <v>310</v>
       </c>
       <c r="C199" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>542</v>
@@ -5556,7 +5574,7 @@
         <v>311</v>
       </c>
       <c r="C200" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>543</v>
@@ -5570,7 +5588,7 @@
         <v>312</v>
       </c>
       <c r="C201" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>544</v>
@@ -5584,7 +5602,7 @@
         <v>314</v>
       </c>
       <c r="C202" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>545</v>
@@ -5598,7 +5616,7 @@
         <v>315</v>
       </c>
       <c r="C203" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>546</v>
@@ -5612,7 +5630,7 @@
         <v>317</v>
       </c>
       <c r="C204" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>547</v>
@@ -5626,7 +5644,7 @@
         <v>319</v>
       </c>
       <c r="C205" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>548</v>
@@ -5640,7 +5658,7 @@
         <v>130</v>
       </c>
       <c r="C206" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>437</v>
@@ -5654,7 +5672,7 @@
         <v>321</v>
       </c>
       <c r="C207" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>549</v>
@@ -5668,7 +5686,7 @@
         <v>323</v>
       </c>
       <c r="C208" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>550</v>
@@ -5682,7 +5700,7 @@
         <v>324</v>
       </c>
       <c r="C209" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>539</v>
@@ -5696,7 +5714,7 @@
         <v>326</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>551</v>
@@ -5710,7 +5728,7 @@
         <v>328</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>552</v>
@@ -5724,7 +5742,7 @@
         <v>330</v>
       </c>
       <c r="C212" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>553</v>
@@ -5738,7 +5756,7 @@
         <v>332</v>
       </c>
       <c r="C213" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>554</v>
@@ -5752,7 +5770,7 @@
         <v>333</v>
       </c>
       <c r="C214" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>555</v>
@@ -5766,7 +5784,7 @@
         <v>335</v>
       </c>
       <c r="C215" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>556</v>
@@ -5780,7 +5798,7 @@
         <v>337</v>
       </c>
       <c r="C216" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>557</v>
@@ -5791,7 +5809,7 @@
         <v>338</v>
       </c>
       <c r="C217" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>558</v>
@@ -5802,7 +5820,7 @@
         <v>339</v>
       </c>
       <c r="C218" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>559</v>
@@ -5816,7 +5834,7 @@
         <v>341</v>
       </c>
       <c r="C219" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>560</v>
@@ -5830,7 +5848,7 @@
         <v>342</v>
       </c>
       <c r="C220" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>416</v>
